--- a/topo/allVMList.xlsx
+++ b/topo/allVMList.xlsx
@@ -338,10 +338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -777,6 +777,91 @@
         <v>1</v>
       </c>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
